--- a/Stolio_5기_면접.xlsx
+++ b/Stolio_5기_면접.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08c789ca98be41b7/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{D37A8504-4CB8-4EB9-A9CA-209A6EF63430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAAA32E0-5AAD-4B9E-BAD2-BEDB2C243A6A}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{D37A8504-4CB8-4EB9-A9CA-209A6EF63430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65CD2061-B6D2-44F3-88C5-C8B76ABBCF5F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="611">
   <si>
     <t>이름</t>
   </si>
@@ -95,9 +95,6 @@
     <t>✅ 26학번</t>
   </si>
   <si>
-    <t>초보</t>
-  </si>
-  <si>
     <t>네</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
   </si>
   <si>
     <t>26</t>
-  </si>
-  <si>
-    <t>중수</t>
   </si>
   <si>
     <t>웹</t>
@@ -1891,6 +1885,10 @@
   </si>
   <si>
     <t>맞춤Q3(관심/경험 기반)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2283,8 +2281,8 @@
   <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2358,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
@@ -2372,10 +2370,10 @@
     </row>
     <row r="2" spans="1:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>22</v>
@@ -2384,64 +2382,64 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3">
         <v>26</v>
@@ -2453,66 +2451,66 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3">
         <v>26</v>
@@ -2524,66 +2522,66 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3">
         <v>26</v>
@@ -2595,206 +2593,206 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="V7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3">
         <v>26</v>
@@ -2806,66 +2804,66 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="T8" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" s="3">
         <v>26</v>
@@ -2877,66 +2875,66 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="V9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3">
         <v>26</v>
@@ -2948,211 +2946,211 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="T10" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="3" t="s">
+      <c r="T11" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="K12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
@@ -3161,66 +3159,66 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="K13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="P13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B14" s="3">
         <v>26</v>
@@ -3232,69 +3230,69 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="T14" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>22</v>
@@ -3303,66 +3301,66 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="T15" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="U15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B16" s="3">
         <v>26</v>
@@ -3374,66 +3372,66 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="K16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="P16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="T16" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B17" s="3">
         <v>26</v>
@@ -3445,69 +3443,69 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="K17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="T17" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
@@ -3516,64 +3514,64 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="T18" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B19" s="3">
         <v>26</v>
@@ -3585,140 +3583,140 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="K19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="P19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="3" t="s">
+      <c r="T19" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="W19" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R20" s="3" t="s">
+      <c r="T20" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
@@ -3727,137 +3725,137 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="3" t="s">
+      <c r="T21" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="P22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B23" s="3">
         <v>26</v>
@@ -3869,64 +3867,64 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="P23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="T23" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B24" s="3">
         <v>26</v>
@@ -3938,66 +3936,66 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="K24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="P24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" s="3" t="s">
+      <c r="T24" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B25" s="3">
         <v>26</v>
@@ -4009,66 +4007,66 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="K25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="P25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="3" t="s">
+      <c r="T25" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W25" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B26" s="3">
         <v>26</v>
@@ -4080,137 +4078,137 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="P26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="T26" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H27" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="K27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="P27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="T27" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B28" s="3">
         <v>26</v>
@@ -4222,66 +4220,66 @@
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="P28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S28" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="T28" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B29" s="3">
         <v>26</v>
@@ -4293,66 +4291,66 @@
         <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="T29" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B30" s="3">
         <v>26</v>
@@ -4364,66 +4362,66 @@
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="P30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="T30" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B31" s="3">
         <v>26</v>
@@ -4435,69 +4433,69 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I31" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="P31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="T31" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>22</v>
@@ -4506,66 +4504,66 @@
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="P32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="T32" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="U32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W32" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B33" s="3">
         <v>26</v>
@@ -4577,69 +4575,69 @@
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I33" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="P33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R33" s="3" t="s">
+      <c r="T33" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W33" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="247.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>22</v>
@@ -4648,69 +4646,69 @@
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="K34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="P34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="P34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="T34" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
@@ -4719,140 +4717,140 @@
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="K35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="P35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="T35" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="U35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W35" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="P36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="P36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="T36" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>22</v>
@@ -4861,208 +4859,208 @@
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="P37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R37" s="3" t="s">
+      <c r="T37" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W37" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="P38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="P38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="T38" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I39" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="P39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="P39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="T39" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B40" s="3">
         <v>26</v>
@@ -5074,66 +5072,66 @@
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="P40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="T40" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B41" s="3">
         <v>26</v>
@@ -5145,140 +5143,140 @@
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H41" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="K41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="P41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>444</v>
-      </c>
       <c r="T41" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D42" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I42" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="P42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="T42" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>22</v>
@@ -5287,137 +5285,137 @@
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="P43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="T43" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D44" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="K44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="P44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>475</v>
-      </c>
       <c r="T44" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B45" s="3">
         <v>26</v>
@@ -5429,69 +5427,69 @@
         <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I45" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="P45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R45" s="3" t="s">
+      <c r="T45" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W45" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>22</v>
@@ -5500,66 +5498,66 @@
         <v>1</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I46" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="N46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="P46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="T46" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B47" s="3">
         <v>26</v>
@@ -5571,61 +5569,61 @@
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H47" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="K47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="P47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>502</v>
-      </c>
       <c r="T47" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -5657,42 +5655,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5701,48 +5699,48 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/Stolio_5기_면접.xlsx
+++ b/Stolio_5기_면접.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08c789ca98be41b7/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{D37A8504-4CB8-4EB9-A9CA-209A6EF63430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65CD2061-B6D2-44F3-88C5-C8B76ABBCF5F}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{D37A8504-4CB8-4EB9-A9CA-209A6EF63430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD7D733-025D-4A1B-BF23-7CDF8494992F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="567">
   <si>
     <t>이름</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>C, C#, C++, Python에 대한 심화 지식, 코드 설계(코드 구조, 최적화), 게임개발, 인공지능, 정보보안</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 2가지</t>
   </si>
   <si>
     <t>지원 동기에서 '프로그래밍을 좋아하고 꽤 능숙한 편이라, 이왕이면 더 재미있을 것 같은 동아리에 지원해야겠다고 생각…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -213,9 +210,6 @@
     <t>지금 당장 관심있는것을 뽑는다면 코딩에 흥미가 있어 코딩관련된 분야를 배우고 싶습니다</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 3가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '오티를 가기 전부터 과동아리가 무엇이 있고 어떤 활동을 하는지를 계속 찾아봤는데 그 중 스토리오가 …'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>게임개발이나 네트워크, 서버, 백엔드 정도가 가장 흥미있는 부분입니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 4가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '발표자료에서 보았던 동아리 활동 내의 분위기가 매우 좋아보였고, 여러 팀 프로젝트를 진행하는데에 있…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>전공 선택에 있어서 방향성을 잡고 개발쪽을 배워보고싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 5가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '안녕하세요'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -322,9 +310,6 @@
   </si>
   <si>
     <t>백엔드, 앱개발</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 6가지</t>
   </si>
   <si>
     <t>지원 동기에서 '프로젝트도 하고 싶고 공모전도 하고 싶습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -356,9 +341,6 @@
   </si>
   <si>
     <t>웹개발과 백엔드에 대해 배우고싶습니다.</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 7가지</t>
   </si>
   <si>
     <t>지원 동기에서 '학과 동아리를 고민하던중에 스토리오 소개를 보고 재미있는 학과 생활과 기초적인 학과 기본기를 다지려…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -390,9 +372,6 @@
     <t>저는 인공지능 분야에 가장 큰 관심을 가지고 있습니다. 고등학교 생활 동안 음성인식 고카트 제작 등 기계학습을 활용한 다양한 프로젝트를 진행하며, 인공지능 기술이 실제 문제 해결에 적용되는 과정에 큰 흥미를 느꼈습니다. 이러한 경험을 통해 AI 모델이 어떤 원리로 학습하고 판단하는지에 대해 더 깊이 탐구하고 싶다는 목표가 생겼고 앞으로 대학 생활을 하며 배우게 될 인공지능의 이론적인 내용을 스트리오의 팀 프로젝트와 스터디 활동을 통해 실제 기술에 적용해 보고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 8가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '스트리오는 팀 프로젝트와 그룹 스터디를 통해 함께 공부하고 성장하는 동아리라는 점에서 큰 매력을 느…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -426,9 +405,6 @@
     <t>앞으로 수강할 C언어, JAVA 등 다양한 언어와 전공 기초 과목들을 동아리 활동과 병행하며 체화시키고 또한 인공지능의  소프트웨어에 대해 배워, 제가 1.2학년동안 배울 자료구조, 알고리즘, 운영체제, 네트워크 등의 CS 기초 지식이 실제 인공지능 서비스나 로봇 같은 시스템 위에서 어떻게 유기적으로 돌아가는지 이해하고 구현해보고 싶습니다 이를통하여 소프트웨어의 전체적인 흐름을 파악할 줄 아는 개발자가 되어, 어떤 분야에서든 인공지능 기술을 안정적으로 접목할 수 있는 넓은 시야를 갖추는 것을 목표로 잡아 동아리에서 여러 프로젝트를 경험하며 이론으로 배우는 과목들이 실제 개발 현장에서 어떻게 쓰이는지 몸소 배우고 싶습니다!</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 9가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '제가 고등학교 입학할 때에도 공부하는 방법을 몰라서 힘들었던 기억이 있습니다 그당시에 친구들과 선생…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -456,9 +432,6 @@
     <t>adsp보유, 이번 학기에는 배우는 과목들을 실습으로 확장시켜보고 싶습니다. Java를 활용한 백엔드 개발과 Linux 환경에서의 시스템 운영 지식을 습득하여, 분석 모델을 실제 서비스에 녹여낼 수 있는 엔지니어링 역량을 키우고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 10가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '스토리오의 활발한 활동들을 알고 있고 좋은사람들이 많은 것을 알기에 한번 스토리오는 영원한 스토리오…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -492,9 +465,6 @@
     <t>C++/Java/HTML,CSS,Java Script 기초적인 수준만 알고 있습니다. / 앱 개발 백엔드에 관심이 있어 Python 공부 해보고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 11가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '동아리 활동을 통해 편입생으로서 미흡한 학부 지식을 부원들과 공부하며 채우고 학과 적응을 빠르게 하…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -525,9 +495,6 @@
     <t>인공지능 분야에 대한 깊은 전공 지식은 없지만 인공지능학부에 진학한 만큼 앞으로 기본 원리부터 차근차근 배우고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 12가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '전남대학교 인공지능학부에 입학하며 AI분야를 체계적으로 배우고 싶다는 목표를 가지게 되었지만, 혼자…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -556,9 +523,6 @@
   </si>
   <si>
     <t>보안, 기계학습</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 13가지</t>
   </si>
   <si>
     <t>지원 동기에서 '오티 때 동아리 발표를 듣고나서 선배들과 함께 대회에 참여하고 여러 프로젝트를 진행해보고 싶다는 생…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -586,9 +550,6 @@
     <t>게임개발과 웹개발 분야에 관심이 있으며 동아리 활동을 통해 다양한 분야를 폭넓게 배우고 경험해보고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 14가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '스토리오는 다양한 대회와 프로젝트 참여를 통해 실력을 직접 키울 수 있는 동아리라는 점이 가장 인상…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -617,9 +578,6 @@
 경험은 학교 생활때 해본 블럭코딩과 겨울 더드림때에 들어본 코딩을 통한 적분과정이 전부이고 배워본것이 없는 만큼 다양한 분야를 모두 도전 해보고 싶은 마음이 있고 보안쪽 분야도 경험 해보고 싶은 생각이 크지만 개발과 같은 활동을 좀 더 깊게 배워보고 싶습니다!</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 15가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '스토리오에 지원하게 된 계기는 제가 생각하는 가장 이상적인 대학 생활과 가장 잘 어울린다고 생각 하…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -647,9 +605,6 @@
     <t>인공지능 개발과 학습에 관련된 분야를 우선적으로 배우고 싶고, 기회가 된다면 다른 분야들도 배우고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 16가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '동아리 활동을 통해 인공지능학부와 관련된 지식을 쌓아 올리고 팀 프로젝트나 공모전 참여 등을 통한 …'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -674,9 +629,6 @@
     <t>코딩에 대해 배우고싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 17가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '이 동아리에서 학업에 관해서 도움을 받을 수 있을거 같고 하는 활동도 재미있을거 같아서 지원하게되었…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -704,9 +656,6 @@
     <t>프로그래밍 언어부터 차근차근 배워 나가고 싶습니다. 종류 상관없이 Java, C언어 등등 기본적인 것들부터 배우며 추후에는 간단한 게임이나 프로그램 등을 만들어 보고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 18가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '인스타 게시물을 보고 스토리오에 입단하게 되면 즐거운 동아리 생활과 더불어 학생으로서의 발전과 성장…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -737,9 +686,6 @@
     <t>현재 전공지식이 많이 부족한 상태입니다. 파이썬도 아직 능숙하지 않고 특정 분야를 깊이있게 공부해본 경험도 없습니다. 그렇기 때문에 오히려 더 제대로 배우고 싶다는 생각이 들었고, 어떤 분야이든 제게는 모두 새로운 도전이고 그만큼 큰 배움이 될 것이라고 생각합니다. 그중에서 굳이 꼽아보자면 보안이나 백엔드 분야를 경험해보고 싶습니다. 정확히 어떤 일을 하는지 알지는 못하지만 기초부터 차근차근 배우면서 저에게 맞는 분야인지 직접 경험해보고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 19가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '1학년 때 과 동아리에 소속되지 않고 학교생활을 하다 보니 동기들이 동아리 활동을 통해 전공을 배우…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -767,9 +713,6 @@
     <t>게임개발에 가장 관심이 있고, 그 다음으론 보안과 관련된 지식이나 경험을 쌓아보고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 20가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '대단한 계기는 아니지만 신입생 ot 시간에 동아리 소개하시는 모습이 인상깊었어서 지원하게 되었습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -798,9 +741,6 @@
   </si>
   <si>
     <t>관심 있는 분야는 게임개발 쪽이지만 진짜 아직 아는 것이 많이 없어 배울 수 있는 것은 다 배워 보고 싶습니다.</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 21가지</t>
   </si>
   <si>
     <t>지원 동기에서 '대학교에 아는 사람이 많이 없어 많은 사람과 친해지고 싶어서 지원하게 됐습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -831,9 +771,6 @@
     <t>고등학생 때 학교에서 파이썬을 접해보았지만 깊이 있게 다루진 않았습니다. 다만 앞으로 로봇공학자가 되고 싶다는 목표를 가지고 있기에 이와 관련된 지식이나 경험을 차근차근 쌓아가고 싶습니다. 아직 어떤 활동이 제 진로에 도움될지는 잘 모르지만, 도움이 될 수 있는 활동이라면 무엇이든 성실하게 참여하며 경험해보고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 22가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '오티 뒷풀이에 갔었을 때 뵈었던 선배님들이 계셨는데 그 분들 모두 스토리오 동아리셨습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -861,9 +798,6 @@
     <t>저는 아직 개발자란 단어만 두고 막연하게 웹과 앱 기획 및 제작에 관심을 가지고 있는 단계입니다만, 개인적으로 AI 모델이 들어간 게임을 만들어 구글 플레이 스토어 등에 출시해보고 싶다는 소망이 있습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 23가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 'OT에서 마지막으로 동아리 소개해주셨을 때 구성이 재미있어서 기억에 남았습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -894,9 +828,6 @@
     <t>저는 고등학교에서 인공지능에 관심이 있어서 선형회귀분석을 활용해 형량과 재범률의 관계를 탐구한 경험이 있습니다. 이러한 관심을 바탕으로 앞으로는 인공지능 기술으로 실제 사용자에게 도움이 되고 싶다는 생각이 들어서 웹개발 분야를 배우고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 24가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 'AI스터디를 통해서 코딩실력을 향상하고 해커톤 대회나 교내경진대회에 참여해서 대외 활동 경력을 쌓고…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -922,9 +853,6 @@
   </si>
   <si>
     <t>고등학교 때 파이썬 과목을 통해 기본적인 문법과 간단한 코딩을 배운 경험이 있습니다. 게임 개발에 대해 배우고 싶습니다. 고등학교 때 긴단한 타자기 게임을 만들어 본 적이 있습니다. 재미를 느껴 더 정교한 완성도 높음 게임을 만들어보고 싶습니다.</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 25가지</t>
   </si>
   <si>
     <t>지원 동기에서 '대학교에 오면 다양한 활동을 해보고 싶다고 생각했습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -957,9 +885,6 @@
     <t>웹을 개발하는 과정과 웹 서비스가 어떤 방식으로 만들어지는지 배우고 싶다는 관심을 가지고 있습니다.
 아직 실제 경험은 없지만, 백엔드와 프론트엔드가 함께 작동하여 하나의 웹 서비스를 완성하는 과정에 흥미를 느끼고 있습니다. 전공에서 배운 이론과 동아리 활동을 통해 이러한 분야에 대해 더 깊이 이해하고 싶습니다.
 또한 새로운 분야를 배우며 정말 다양한 경험을 쌓고 적성에 맞는 분야를 알아가보고싶습니다</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 26가지</t>
   </si>
   <si>
     <t>지원 동기에서 '1학년때는 과동아리에 들어가지 못해서 혼자 고민했던 부분이 많았는데 이번에 스토리오에 들어가 같은 …'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -994,9 +919,6 @@
 Stolio와 함께 배우고 경험하며, 저만의 방향을 천천히 만들어가고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 27가지</t>
-  </si>
-  <si>
     <t>기대/매력 부분에서 '제가 느낀 Stolio의 가장 큰 매력은 ‘사람’과 ‘분위기’였습니다'라고 했는데, 그중에서 가장 기대하는 포인트 1가지만 고르면 뭐예요? 그걸 위해 본인이 할 수 있는 일은 어떤 게 있을까요?</t>
   </si>
   <si>
@@ -1020,9 +942,6 @@
     <t>학부 관련하여 기초적인 수준이지만 파이썬과 C언어에 대해 공부한 적이 있습니다. / 웹개발이나 보안에 대해 배우고싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 28가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '동아리 소개글에서 본 '표준입출력 헤더 파일처럼 대학생활의 표준이 되어줄 것이다'라는 문구가 인상깊…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1047,9 +966,6 @@
     <t>로봇개발</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 29가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '전공과 관련된 활동을 자연스럽게 경험해보고 그 과정에서 선배님들, 동기들과 친해질 수 있는 동아리를…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1074,9 +990,6 @@
     <t>2023년에 파이선을 배우면서 공부한 경험이 있습니다. 파이썬 기본 문법을 익혔었고 numpy,pandas,matplotlib, tensorflow 등의 라이브러리를 활용해 코딩을 해본 경험이 있습니다. 게임, 웹, 앱 개발 분야를 배우고 싶습니다. 보안 쪽에도 흥미가 있습니다. 그러나 지금 당장에 배우고 싶은 분야는 게임, 앱 개발입니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 30가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 'Stolio 인스타그램을 찾아보니 Stolio가 가장 재밌게 잘 노는 것처럼 보였고 저도 그 일원이…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1101,9 +1014,6 @@
     <t>저는 아직 신입생이기에 학부에대해선 아직 배운것이 없지만 1학년 1학기에 배우는 C프로그래밍을 활용해서 Edge AI 분야를 깊이 있게 배우고 싶습니다. Edge AI는 클라우드가 아닌 제한된 하드웨어 환경에서 AI 모델을 직접 실행하는 기술로, 메모리 관리와 연산 최적화가 매우 중요하다고 생각합니다. C언어를 통해 포인터, 메모리 구조, 자료구조를 이해하며 효율적인 프로그램 설계 능력을 기르고 싶습니다. 이를 바탕으로 경량화된 AI 모델이 실제 디바이스에서 어떻게 동작하는지 직접 구현해보고 싶습니다. 궁극적으로는 성능과 효율성을 모두 고려할 수 있는 AI 시스템 개발자로 성장하고 싶습니다. 저를 뽑아주신다면 Stolio에 도움이 되는 부원이 되도록 노력하겠습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 31가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 'OT에서 여러 동아리 선배님들의 소개를 들었지만, Stolio 선배님의 발표가 가장 인상 깊었습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1128,9 +1038,6 @@
     <t>현재 관련 지식이 부족한 상태이지만 성실함과 배우려는 의지로 열심히 하겠습니다. / 다양한 분야를 배우고 싶지만 하나만 선택하자면 백엔드입니다. 처음 접하는 분야이기 때문에 배워보고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 32가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '대학 생활을 시작하면서 좋은 추억을 만들고 의미있는 활동을 해보고 싶어 이 동아리에 지원하게 되었습…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1159,9 +1066,6 @@
   </si>
   <si>
     <t>최근에 학과 관련 공부를 하려고 책을 읽다가 웹 개발에는 프론트엔드와 백엔드 영역으로 구성되어 있다는 개념을 알게 되었고 고등학교 때 진행했던 프로젝트가 프론트엔드 영역에 해당하는 활동이었다는 것을 알게 되었습니다. 학급 기념일로 반 친구들을 실제 사용자로 설정하고 스터디 플래너 템플릿을 제공하는 웹사이트를 기획해보는 프로젝트를 진행했었고 저는 Figma를 활용해 메인 페이지와 각 템플릿을 디자인하고 버튼 클릭에 따라 화면이 전환되는 인터랙션을 구현하여 프로토타입을 제작하였습니다. 또한 완성된 프로토타입을 반 친구들에게 배포하고 피드백을 수집하는 역할을 맡았습니다. 이 경험을 바탕으로 화면에 보이는 요소뿐 아니라 사용자 데이터가 어떤 방식으로 저장되고 처리되는지, 또 보안은 어떻게 이루어지는지에도 자연스럽게 관심이 생기게 되었습니다. 그래서 동아리에 들어간다면 백엔드에 대해서도 배워서 웹이 우리가 보는 화면 뒤에서 어떻게 돌아가는지 이해해 보고 싶습니다.</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 33가지</t>
   </si>
   <si>
     <t>지원 동기에서 '작년에 동아리에서 AI TECH+라는 인공지능 박람회에 참여했었습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -1192,9 +1096,6 @@
 저는 게임 개발과 보안에 대해 배워보고 싶습니다. 게임 캐릭터의 행동이나 난이도 조절에 인공지능이 어떻게 적용되는지 궁금하고, 보안에서는 이상 탐지나 데이터 보호와 관련된 기술을 이해해보고 싶습니다. 특히 인공지능이 실제 환경에서 어떤 기준으로 판단을 내리는지 깊이 배우고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 34가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '고등학교 때 프로그래밍과 인공지능기초 수업을 들으며, 반복문과 조건문을 코딩하는데 있어서 다양한 방…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1220,9 +1121,6 @@
   </si>
   <si>
     <t>웹개발 또는 앱개발(금융권 IT 희망)을 배우고 싶습니다.</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 35가지</t>
   </si>
   <si>
     <t>지원 동기에서 '개발에 관심은 꾸준히 가지고 있었지만 직접 실행으로 옮기지 못해 아쉬움이 있었습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -1249,9 +1147,6 @@
   </si>
   <si>
     <t>게임개발, 웹개발</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 36가지</t>
   </si>
   <si>
     <t>지원 동기에서 '저는 장래에 게임 프로그래머가 되는 것을 목표로 하고 있습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -1285,9 +1180,6 @@
  아직 구체적으로 어떤 세부 분야를 깊이 있게 탐구하고 싶은지 정한 상태는 아니기에 다양한 영역을 직접 경험해보며 제 적성과 흥미를 찾아가고 싶습니다. 이론으로만 접하는 것이 아니라, 프로젝트를 진행하며 인공지능이 실제로 어떻게 활용되는지 배우고 싶습니다. 이를 통해 점차 제 방향을 구체화해 나가고자 합니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 37가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '저는 현재 2학년으로 재학중이며, 인공지능 전공을 희망하고 있습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1316,9 +1208,6 @@
     <t>웹개발이나 백엔드를 배워보고 싶습니다. 2학년때 배울 자료구조, java를 이용해 개발해보고 서로 피드백함으로써 한층 더 성장하고 싶습니다</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 38가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '아직 전공을 깊이 경험해보는 단계이지만, 혼자 공부하는 것보다 함께 고민하고 부딪히는 과정이 더 큰…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1343,9 +1232,6 @@
     <t>보안이나 백엔드 분야에 대해 배우고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 39가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '동아리 내의 분위기가 좋아보여 지원하게 되었습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1373,9 +1259,6 @@
     <t>아직은 전공과 관련한 깊이 있는 경험과 지식은 많지 않지만 인공지능이 실제 서비스에서 어떻게 구현되는지에 대해 관심을 가지고 있습니다! 단순한 이론뿐만 아니라 데이터가 처리되고 결과로 이어지는 전체 흐름에 대해 배우고 싶습니다. 특히 데이터를 다루는 과정과 이를 기반으로 기능을 구현하는 쪽에 관심이 있습니다. 앞으로는 기초적인 데이터 처리와 모델 구현에 대해 배우고 이를 실제로 동작하는 형태로 만들어보는 경험을 쌓고 싶습니다. 또한 프로젝트에 참여하며 다양한 영역을 폭넓게 배우며 기초 역량을 다지고 싶습니다!</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 40가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '대학교를 다니며 전공 수업을 통해 배운 내용을 실제로 확장해보고 싶다는 생각이 들어 지원하게 되었습…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1403,9 +1286,6 @@
     <t>학부에서 파이썬과 c언어를 활용하여 기본적인 프로그램을 구현한 경험이 있습니다. 스토리오 활동을 통해 웹 개발과 데이터 처리 분야를 배우고 팀 프로젝트에서 학부 지식을 실제로 적용하며 경험을 쌓고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 41가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '스토리오의 팀 프로젝트와 동아리 활동이 매력적으로 느껴져 지원하게 되었습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1433,9 +1313,6 @@
     <t>게임이나 ai 개발에 관심이 있지만 뭐든 배우고싶습니다</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 42가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '같은 직종을 희망하는 선배님들, 동기들과의 교류를 통해 실력을 기르며 친목도 다지고, 큰 동기부여가…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1464,9 +1341,6 @@
   </si>
   <si>
     <t>NLP ,IOT 부분입니다.</t>
-  </si>
-  <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 43가지</t>
   </si>
   <si>
     <t>지원 동기에서 '제가 첫 전남대를 와서 적응을 하지 못하고 방황했습니다'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
@@ -1491,9 +1365,6 @@
     <t>현재 파이썬 기본 문법을 이해하는 기초 수준이며 웹 개발 분야에 대해 배우고 싶습니다. 코드 결과가 시각적으로 바로 드러나 전공을 처음 접하는 입장에서 학습 과정을 체감하기 좋다고 생각했습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 44가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '전공 공부를 시작하기 전, 아직은 어떤 분야가 제게 맞는지 혹은 무엇을 잘 할 수 있는지 명확히 모…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1519,9 +1390,6 @@
     <t>동아리 인스타를 살펴보니 홍보물이 굉장히 매력적인데 실제로 만나뵙게 되면 얼마나 재미있을지 정말 기대됩니다 !</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 45가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 'ot때 발표하신 ppt가 인상깊어서 지원하게 되었습니다 저는 편안한 분위기에서 모두가 발전하는 동아…'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1551,9 +1419,6 @@
 최근에는 인공지능이 실제로 어떻게 활용되는지에 대해 공부하며 머신러닝을 학습해 보았습니다. 앞으로는 인공지능 보안 분야에 대해 배워보고 싶은 마음이 있고, 동아리 활동을 통해 이론의 내용보다는 실제 프로젝트에 참여해보며 실질적인 과정의 경험을 쌓아보고 싶습니다.</t>
   </si>
   <si>
-    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 46가지</t>
-  </si>
-  <si>
     <t>지원 동기에서 '대학이라는 새로운 환경에서 새로운 학교생활과 전공 강의를 시작하게 될텐데, 혼자서는 막막함을 느낄 …'라고 했는데, 이 동기를 한 문장으로 더 쉽게 말해줄래요? 그리고 이번 학기에 꼭 해보고 싶은 작은 목표 1가지는 뭔가요?</t>
   </si>
   <si>
@@ -1889,6 +1754,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원서에 적은 내용 중에서 이번 학기에 가장 해보고 싶은 것 1가지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2280,9 +2149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F47"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3:O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2356,7 +2225,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
@@ -2382,13 +2251,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>26</v>
@@ -2411,7 +2280,9 @@
       <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>566</v>
+      </c>
       <c r="P2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2425,7 +2296,7 @@
         <v>35</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>36</v>
@@ -2451,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>42</v>
@@ -2481,7 +2352,7 @@
         <v>48</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>49</v>
+        <v>566</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>32</v>
@@ -2490,27 +2361,27 @@
         <v>33</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3">
         <v>26</v>
@@ -2522,37 +2393,37 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>62</v>
+        <v>566</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>32</v>
@@ -2561,27 +2432,27 @@
         <v>33</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3">
         <v>26</v>
@@ -2593,37 +2464,37 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>74</v>
+        <v>566</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>32</v>
@@ -2632,30 +2503,30 @@
         <v>33</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>40</v>
@@ -2664,35 +2535,35 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>86</v>
+        <v>566</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>32</v>
@@ -2701,30 +2572,30 @@
         <v>33</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
@@ -2733,37 +2604,37 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>99</v>
+        <v>566</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>32</v>
@@ -2772,27 +2643,27 @@
         <v>33</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B8" s="3">
         <v>26</v>
@@ -2804,37 +2675,37 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>110</v>
+        <v>566</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>32</v>
@@ -2843,13 +2714,13 @@
         <v>33</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>569</v>
+        <v>524</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>36</v>
@@ -2858,12 +2729,12 @@
         <v>37</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3">
         <v>26</v>
@@ -2875,37 +2746,37 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>120</v>
+        <v>566</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>32</v>
@@ -2914,27 +2785,27 @@
         <v>33</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10" s="3">
         <v>26</v>
@@ -2946,37 +2817,37 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>132</v>
+        <v>566</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>32</v>
@@ -2985,19 +2856,19 @@
         <v>33</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>571</v>
+        <v>526</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>38</v>
@@ -3005,10 +2876,10 @@
     </row>
     <row r="11" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
@@ -3017,37 +2888,37 @@
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>142</v>
+        <v>566</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>32</v>
@@ -3056,30 +2927,30 @@
         <v>33</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
@@ -3088,37 +2959,37 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>528</v>
+        <v>483</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>154</v>
+        <v>566</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>32</v>
@@ -3127,13 +2998,13 @@
         <v>33</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>36</v>
@@ -3142,12 +3013,12 @@
         <v>37</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3159,37 +3030,37 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>165</v>
+        <v>566</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>32</v>
@@ -3198,27 +3069,27 @@
         <v>33</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B14" s="3">
         <v>26</v>
@@ -3230,37 +3101,37 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>176</v>
+        <v>566</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>32</v>
@@ -3269,27 +3140,27 @@
         <v>33</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="U14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="W14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
@@ -3301,37 +3172,37 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>32</v>
@@ -3340,13 +3211,13 @@
         <v>33</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>36</v>
@@ -3360,7 +3231,7 @@
     </row>
     <row r="16" spans="1:23" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3">
         <v>26</v>
@@ -3372,37 +3243,37 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>195</v>
+        <v>566</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>32</v>
@@ -3411,27 +3282,27 @@
         <v>33</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B17" s="3">
         <v>26</v>
@@ -3443,37 +3314,37 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>532</v>
+        <v>487</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>205</v>
+        <v>566</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>32</v>
@@ -3482,27 +3353,27 @@
         <v>33</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>25</v>
@@ -3514,35 +3385,35 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>214</v>
+        <v>566</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>32</v>
@@ -3551,27 +3422,27 @@
         <v>33</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B19" s="3">
         <v>26</v>
@@ -3583,37 +3454,37 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>224</v>
+        <v>566</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>32</v>
@@ -3622,30 +3493,30 @@
         <v>33</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>580</v>
+        <v>535</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>40</v>
@@ -3654,37 +3525,37 @@
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>235</v>
+        <v>566</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>32</v>
@@ -3693,27 +3564,27 @@
         <v>33</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>581</v>
+        <v>536</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>25</v>
@@ -3725,37 +3596,37 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>245</v>
+        <v>566</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>32</v>
@@ -3764,30 +3635,30 @@
         <v>33</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>582</v>
+        <v>537</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>40</v>
@@ -3796,37 +3667,37 @@
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>256</v>
+        <v>566</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>32</v>
@@ -3835,27 +3706,27 @@
         <v>33</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>583</v>
+        <v>538</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B23" s="3">
         <v>26</v>
@@ -3867,35 +3738,35 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>266</v>
+        <v>566</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>32</v>
@@ -3904,27 +3775,27 @@
         <v>33</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>584</v>
+        <v>539</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B24" s="3">
         <v>26</v>
@@ -3936,37 +3807,37 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>276</v>
+        <v>566</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>32</v>
@@ -3975,13 +3846,13 @@
         <v>33</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>36</v>
@@ -3990,12 +3861,12 @@
         <v>37</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B25" s="3">
         <v>26</v>
@@ -4007,37 +3878,37 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>287</v>
+        <v>566</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>32</v>
@@ -4046,27 +3917,27 @@
         <v>33</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B26" s="3">
         <v>26</v>
@@ -4078,37 +3949,37 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>297</v>
+        <v>566</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>32</v>
@@ -4117,30 +3988,30 @@
         <v>33</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>587</v>
+        <v>542</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>40</v>
@@ -4149,37 +4020,37 @@
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>308</v>
+        <v>566</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>32</v>
@@ -4188,27 +4059,27 @@
         <v>33</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>588</v>
+        <v>543</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="B28" s="3">
         <v>26</v>
@@ -4220,37 +4091,37 @@
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>317</v>
+        <v>566</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>32</v>
@@ -4259,27 +4130,27 @@
         <v>33</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>589</v>
+        <v>544</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="B29" s="3">
         <v>26</v>
@@ -4291,37 +4162,37 @@
         <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>325</v>
+        <v>566</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>32</v>
@@ -4330,16 +4201,16 @@
         <v>33</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>590</v>
+        <v>545</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>37</v>
@@ -4350,7 +4221,7 @@
     </row>
     <row r="30" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B30" s="3">
         <v>26</v>
@@ -4362,37 +4233,37 @@
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>334</v>
+        <v>566</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>32</v>
@@ -4401,27 +4272,27 @@
         <v>33</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>591</v>
+        <v>546</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B31" s="3">
         <v>26</v>
@@ -4433,37 +4304,37 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>343</v>
+        <v>566</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>32</v>
@@ -4472,13 +4343,13 @@
         <v>33</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>592</v>
+        <v>547</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>36</v>
@@ -4487,12 +4358,12 @@
         <v>37</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>25</v>
@@ -4504,37 +4375,37 @@
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>32</v>
@@ -4543,19 +4414,19 @@
         <v>33</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>593</v>
+        <v>548</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>38</v>
@@ -4563,7 +4434,7 @@
     </row>
     <row r="33" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B33" s="3">
         <v>26</v>
@@ -4575,37 +4446,37 @@
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>361</v>
+        <v>566</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>32</v>
@@ -4614,27 +4485,27 @@
         <v>33</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>594</v>
+        <v>549</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="247.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>25</v>
@@ -4646,37 +4517,37 @@
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>372</v>
+        <v>566</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>32</v>
@@ -4685,27 +4556,27 @@
         <v>33</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>595</v>
+        <v>550</v>
       </c>
       <c r="U34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>25</v>
@@ -4717,37 +4588,37 @@
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>382</v>
+        <v>566</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>32</v>
@@ -4756,19 +4627,19 @@
         <v>33</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>596</v>
+        <v>551</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>38</v>
@@ -4776,10 +4647,10 @@
     </row>
     <row r="36" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>40</v>
@@ -4788,37 +4659,37 @@
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>392</v>
+        <v>566</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>32</v>
@@ -4827,13 +4698,13 @@
         <v>33</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>597</v>
+        <v>552</v>
       </c>
       <c r="U36" s="3" t="s">
         <v>36</v>
@@ -4842,12 +4713,12 @@
         <v>37</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>25</v>
@@ -4859,37 +4730,37 @@
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>401</v>
+        <v>566</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>32</v>
@@ -4898,13 +4769,13 @@
         <v>33</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>598</v>
+        <v>553</v>
       </c>
       <c r="U37" s="3" t="s">
         <v>36</v>
@@ -4913,15 +4784,15 @@
         <v>37</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>40</v>
@@ -4930,37 +4801,37 @@
         <v>0</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>411</v>
+        <v>566</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>32</v>
@@ -4969,30 +4840,30 @@
         <v>33</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>599</v>
+        <v>554</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>40</v>
@@ -5001,37 +4872,37 @@
         <v>0</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>421</v>
+        <v>566</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>32</v>
@@ -5040,13 +4911,13 @@
         <v>33</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>600</v>
+        <v>555</v>
       </c>
       <c r="U39" s="3" t="s">
         <v>36</v>
@@ -5055,12 +4926,12 @@
         <v>37</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="B40" s="3">
         <v>26</v>
@@ -5072,37 +4943,37 @@
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>430</v>
+        <v>566</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>32</v>
@@ -5111,27 +4982,27 @@
         <v>33</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>601</v>
+        <v>556</v>
       </c>
       <c r="U40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="B41" s="3">
         <v>26</v>
@@ -5143,37 +5014,37 @@
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>440</v>
+        <v>566</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>32</v>
@@ -5182,30 +5053,30 @@
         <v>33</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>602</v>
+        <v>557</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>40</v>
@@ -5214,37 +5085,37 @@
         <v>0</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>32</v>
@@ -5253,27 +5124,27 @@
         <v>33</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>603</v>
+        <v>558</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>37</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>25</v>
@@ -5285,37 +5156,37 @@
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>460</v>
+        <v>566</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>32</v>
@@ -5324,30 +5195,30 @@
         <v>33</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>604</v>
+        <v>559</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>36</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>40</v>
@@ -5356,37 +5227,37 @@
         <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>471</v>
+        <v>566</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>32</v>
@@ -5395,27 +5266,27 @@
         <v>33</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B45" s="3">
         <v>26</v>
@@ -5427,37 +5298,37 @@
         <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>479</v>
+        <v>566</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>32</v>
@@ -5466,27 +5337,27 @@
         <v>33</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>606</v>
+        <v>561</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>37</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>25</v>
@@ -5498,37 +5369,37 @@
         <v>1</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>32</v>
@@ -5537,27 +5408,27 @@
         <v>33</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>607</v>
+        <v>562</v>
       </c>
       <c r="U46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="W46" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="B47" s="3">
         <v>26</v>
@@ -5569,37 +5440,37 @@
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>562</v>
+        <v>517</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>32</v>
@@ -5608,22 +5479,22 @@
         <v>33</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>608</v>
+        <v>563</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5655,42 +5526,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5699,48 +5570,48 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
